--- a/3-Base de Datos NoSQL (C)/Modeladode datos.xlsx
+++ b/3-Base de Datos NoSQL (C)/Modeladode datos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mestria\INFORMATICA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Documents\GitHub\Informatica-Granja-Urbana-MCIC\3-Base de Datos NoSQL (C)\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7988532-7D4E-4553-8BE1-F284C0D9BF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11955" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
   <si>
     <t>Personas</t>
   </si>
@@ -141,12 +142,18 @@
   </si>
   <si>
     <t>Id_relacion</t>
+  </si>
+  <si>
+    <t>ID_planta</t>
+  </si>
+  <si>
+    <t>Altitud_estandar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -202,15 +209,15 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -493,265 +500,273 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="B1" s="5"/>
+      <c r="G1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="2"/>
+      <c r="C8" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="D11" s="1" t="s">
+      <c r="B11" s="5"/>
+      <c r="D11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="B13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>36</v>
       </c>
     </row>
